--- a/GOA/BSAI_2017_SS.xlsx
+++ b/GOA/BSAI_2017_SS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\RceattleRuns\GOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A1A70C-E09B-814A-BBA7-CFFE86EDF402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1215" windowWidth="25035" windowHeight="13920"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="8" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="srv_comp" sheetId="6" r:id="rId7"/>
     <sheet name="wt" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -294,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,7 +366,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,19 +677,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -702,7 +703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -712,7 +713,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
@@ -730,7 +731,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -744,7 +745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -758,7 +759,7 @@
         <v>66300000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -778,16 +779,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -816,7 +817,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -845,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -874,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -910,20 +911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BE118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -946,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -970,7 +971,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1018,7 +1019,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1042,7 +1043,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1091,7 +1092,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1161,7 +1162,7 @@
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1210,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1258,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1305,7 +1306,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1329,7 +1330,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1354,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1377,7 +1378,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1401,7 +1402,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1425,7 +1426,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1450,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1473,7 +1474,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1498,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1521,7 +1522,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1546,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1570,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1593,7 +1594,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1641,7 +1642,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1666,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1689,7 +1690,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1713,7 +1714,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +1762,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1808,7 +1809,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1832,7 +1833,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1856,7 +1857,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1904,7 +1905,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1928,7 +1929,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1952,7 +1953,7 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1976,7 +1977,7 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +2001,7 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2025,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -2048,7 +2049,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2072,7 +2073,7 @@
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2096,7 +2097,7 @@
       </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>39</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>39</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>39</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>39</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>39</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>40</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>40</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>40</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>40</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -3738,19 +3739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -8500,7 +8501,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" s="1" t="s">
         <v>39</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
@@ -10020,7 +10021,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" s="1" t="s">
         <v>39</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" s="1" t="s">
         <v>39</v>
       </c>
@@ -10210,7 +10211,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
@@ -10495,7 +10496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" s="1" t="s">
         <v>39</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" s="1" t="s">
         <v>39</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -11160,7 +11161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -11255,7 +11256,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -11635,7 +11636,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -11730,7 +11731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -11825,7 +11826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -12395,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -12585,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -12870,7 +12871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" s="1" t="s">
         <v>40</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" s="1" t="s">
         <v>40</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -13250,7 +13251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -13345,7 +13346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" s="1" t="s">
         <v>40</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
@@ -13725,7 +13726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" s="1" t="s">
         <v>40</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" s="1" t="s">
         <v>40</v>
       </c>
@@ -14010,7 +14011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" s="1" t="s">
         <v>40</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -14491,20 +14492,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14685,19 +14686,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -14720,7 +14721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -14743,7 +14744,7 @@
         <v>0.12537840291812399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -14766,7 +14767,7 @@
         <v>8.4146002375137405E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>0.101918543468311</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>7.0168910446396004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -14835,7 +14836,7 @@
         <v>9.8627131287646705E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -14858,7 +14859,7 @@
         <v>0.110720119948757</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>0.10379311623919001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -14904,7 +14905,7 @@
         <v>9.2119584358838297E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -14927,7 +14928,7 @@
         <v>0.13094131090378999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -14950,7 +14951,7 @@
         <v>0.12439449249835299</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>0.113056677987803</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -14996,7 +14997,7 @@
         <v>8.8655816164267404E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>0.104552281137996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>0.18796044625757399</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>8.8462278309553999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>0.118266515646377</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -15111,7 +15112,7 @@
         <v>0.109252569909684</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -15134,7 +15135,7 @@
         <v>0.117650949445298</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>0.112332357920336</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -15180,7 +15181,7 @@
         <v>8.0861908268347493E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -15203,7 +15204,7 @@
         <v>9.0577025352945706E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -15226,7 +15227,7 @@
         <v>0.23880696927808401</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -15249,7 +15250,7 @@
         <v>9.2268140211339597E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>9.2545128160474194E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -15295,7 +15296,7 @@
         <v>9.29886551236664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -15318,7 +15319,7 @@
         <v>0.10283996512311901</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>0.113926925375199</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>0.120929620123405</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -15387,7 +15388,7 @@
         <v>0.114467437293769</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -15410,7 +15411,7 @@
         <v>9.0678311357114599E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>9.8317518600055706E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>7.9910497026376801E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>6.5196842248551198E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -15502,7 +15503,7 @@
         <v>6.28635046971735E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -15525,7 +15526,7 @@
         <v>9.1259924512474999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -15548,7 +15549,7 @@
         <v>7.4588443581463104E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -15571,7 +15572,7 @@
         <v>6.7476818207685405E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>9.5572618351770597E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -15617,7 +15618,7 @@
         <v>5.7934213017470003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -15640,7 +15641,7 @@
         <v>5.47341346249915E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -15663,7 +15664,7 @@
         <v>5.8497075555639003E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -15686,7 +15687,7 @@
         <v>6.0060107606270403E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>7.9258504461491894E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -15732,7 +15733,7 @@
         <v>7.2284548248004496E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>7.2319335639827301E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -15778,7 +15779,7 @@
         <v>7.2228851443092795E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>8.2762211165390898E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>7.9287743752704101E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>0.178486991342411</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>9.0696016789199294E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>9.6104196033909794E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -15916,7 +15917,7 @@
         <v>0.10876005261786</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>7.8015494663165499E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -15962,7 +15963,7 @@
         <v>9.12580753569706E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -15985,7 +15986,7 @@
         <v>8.0181593109859506E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -16008,7 +16009,7 @@
         <v>8.8484813606922105E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>0.106471723273505</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -16054,7 +16055,7 @@
         <v>9.9492142630214594E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>5.8478068262723497E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -16100,7 +16101,7 @@
         <v>6.7974897883143898E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -16123,7 +16124,7 @@
         <v>5.3202687528544498E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -16146,7 +16147,7 @@
         <v>7.7787182164374802E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -16169,7 +16170,7 @@
         <v>6.5070707477017306E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>8.1386292813668895E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>57</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>0.11715437917238</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>7.3351679996030705E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -16261,7 +16262,7 @@
         <v>0.11175034872850501</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>9.1230964453212701E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -16307,7 +16308,7 @@
         <v>0.13932992179788301</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -16330,7 +16331,7 @@
         <v>0.135514597357968</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -16353,7 +16354,7 @@
         <v>7.8358336802974396E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>7.7491778568838598E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -16399,7 +16400,7 @@
         <v>0.108566288997473</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -16422,7 +16423,7 @@
         <v>9.2289779760642995E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -16445,7 +16446,7 @@
         <v>0.142979205564983</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -16468,7 +16469,7 @@
         <v>8.9822615022856406E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>0.101791307377097</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -16514,7 +16515,7 @@
         <v>7.1319199472059405E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>0.117692677129629</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -16560,7 +16561,7 @@
         <v>0.104114064904611</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>8.9828202186812395E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -16606,7 +16607,7 @@
         <v>0.12619910445298399</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>0.13930331462822201</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -16652,7 +16653,7 @@
         <v>9.46523361714212E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -16675,7 +16676,7 @@
         <v>9.7641027160592697E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>0.14465140157852399</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -16721,7 +16722,7 @@
         <v>0.104884094978642</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -16744,7 +16745,7 @@
         <v>0.12784105249502001</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -16767,7 +16768,7 @@
         <v>0.113331599930837</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -16790,7 +16791,7 @@
         <v>0.25610928604544803</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -16813,7 +16814,7 @@
         <v>0.16840347245728299</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>9.3154094497759396E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -16859,7 +16860,7 @@
         <v>9.4341894771923895E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -16882,7 +16883,7 @@
         <v>8.6431533983050202E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>7.3697727941810495E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -16928,7 +16929,7 @@
         <v>7.1352123830594902E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>7.6476852662014899E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>7.7890751477230305E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -16997,7 +16998,7 @@
         <v>8.6531019922090599E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -17020,7 +17021,7 @@
         <v>9.9203204571157499E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -17043,7 +17044,7 @@
         <v>8.3232369370932396E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -17066,7 +17067,7 @@
         <v>7.68454668109078E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -17089,7 +17090,7 @@
         <v>0.10678543656940399</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>8.8662017867181198E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -17135,7 +17136,7 @@
         <v>6.9190915477552906E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -17158,7 +17159,7 @@
         <v>6.1538542941002299E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>4.8445141114596399E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>6.5391566279128094E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -17250,7 +17251,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -17273,7 +17274,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -17319,7 +17320,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -17388,7 +17389,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -17411,7 +17412,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -17434,7 +17435,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -17457,7 +17458,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -17526,7 +17527,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -17595,7 +17596,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -17618,7 +17619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -17641,7 +17642,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -17670,19 +17671,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -17777,7 +17778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -17967,7 +17968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -18062,7 +18063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -18157,7 +18158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -18347,7 +18348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -18537,7 +18538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -18632,7 +18633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -18727,7 +18728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -18822,7 +18823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -19012,7 +19013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -19107,7 +19108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -19202,7 +19203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -19297,7 +19298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -19487,7 +19488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -19582,7 +19583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -19772,7 +19773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -19867,7 +19868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -19962,7 +19963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -20057,7 +20058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -20152,7 +20153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -20247,7 +20248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -20437,7 +20438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -20532,7 +20533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -20722,7 +20723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -20817,7 +20818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -20912,7 +20913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -21007,7 +21008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -21102,7 +21103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -21197,7 +21198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -21292,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -21387,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -21482,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -21577,7 +21578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -21672,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -21767,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -21862,7 +21863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -21957,7 +21958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -22052,7 +22053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -22242,7 +22243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -22337,7 +22338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -22432,7 +22433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -22527,7 +22528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -22622,7 +22623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -22717,7 +22718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -22812,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -22907,7 +22908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -23097,7 +23098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -23192,7 +23193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -23287,7 +23288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -23382,7 +23383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -23477,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -23572,7 +23573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -23667,7 +23668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -23762,7 +23763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
         <v>57</v>
       </c>
@@ -23857,7 +23858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
         <v>57</v>
       </c>
@@ -23952,7 +23953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -24047,7 +24048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -24142,7 +24143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -24237,7 +24238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -24332,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -24427,7 +24428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -24522,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -24617,7 +24618,7 @@
         <v>38.768000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -24712,7 +24713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -24807,7 +24808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -24902,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -24997,7 +24998,7 @@
         <v>38886</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -25092,7 +25093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -25187,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -25282,7 +25283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -25377,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -25472,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -25567,7 +25568,7 @@
         <v>174124</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -25662,7 +25663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -25757,7 +25758,7 @@
         <v>183775</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -25852,7 +25853,7 @@
         <v>346919</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -25947,7 +25948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -26042,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -26137,7 +26138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -26232,7 +26233,7 @@
         <v>89425</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -26327,7 +26328,7 @@
         <v>227114</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -26422,7 +26423,7 @@
         <v>369864</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -26517,7 +26518,7 @@
         <v>108012</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -26612,7 +26613,7 @@
         <v>363575</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -26707,7 +26708,7 @@
         <v>787930</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -26802,7 +26803,7 @@
         <v>762897</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -26897,7 +26898,7 @@
         <v>904074</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -26992,7 +26993,7 @@
         <v>846463</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -27087,7 +27088,7 @@
         <v>719404</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -27182,7 +27183,7 @@
         <v>1431956</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -27277,7 +27278,7 @@
         <v>266908</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -27372,7 +27373,7 @@
         <v>1152241</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -27467,7 +27468,7 @@
         <v>619448</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -27562,7 +27563,7 @@
         <v>101423</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -27657,7 +27658,7 @@
         <v>818897</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -27752,7 +27753,7 @@
         <v>482835</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -27847,7 +27848,7 @@
         <v>666059</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -27942,7 +27943,7 @@
         <v>368644</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -28037,7 +28038,7 @@
         <v>1110772</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -28132,7 +28133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -28322,7 +28323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -28417,7 +28418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -28512,7 +28513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
         <v>59</v>
       </c>
@@ -28607,7 +28608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -28702,7 +28703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -28797,7 +28798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -28892,7 +28893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -28987,7 +28988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -29082,7 +29083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -29177,7 +29178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -29272,7 +29273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -29367,7 +29368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -29462,7 +29463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -29557,7 +29558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -29652,7 +29653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -29747,7 +29748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -29842,7 +29843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -29943,19 +29944,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="5" t="s">
         <v>79</v>
       </c>
@@ -30032,7 +30033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -30109,7 +30110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -30186,7 +30187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -30263,7 +30264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -30340,7 +30341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -30417,7 +30418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -30494,7 +30495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -30571,7 +30572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -30648,7 +30649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -30725,7 +30726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -30802,7 +30803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -30879,7 +30880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -30956,7 +30957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -31033,7 +31034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -31110,7 +31111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -31187,7 +31188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -31264,7 +31265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -31341,7 +31342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -31418,7 +31419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -31495,7 +31496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -31572,7 +31573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -31649,7 +31650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
@@ -31726,7 +31727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -31803,7 +31804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -31880,7 +31881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -31957,7 +31958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -32034,7 +32035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -32111,7 +32112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -32188,7 +32189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -32265,7 +32266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -32342,7 +32343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -32419,7 +32420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -32496,7 +32497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -32573,7 +32574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -32650,7 +32651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -32727,7 +32728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -32804,7 +32805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -32881,7 +32882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -32958,7 +32959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -33035,7 +33036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -33112,7 +33113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -33189,7 +33190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -33266,7 +33267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -33343,7 +33344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -33420,7 +33421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -33497,7 +33498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
@@ -33574,7 +33575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
@@ -33651,7 +33652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -33728,7 +33729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -33805,7 +33806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
@@ -33882,7 +33883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -33959,7 +33960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
@@ -34036,7 +34037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
@@ -34113,7 +34114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -34190,7 +34191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -34267,7 +34268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>81</v>
       </c>
@@ -34344,7 +34345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -34421,7 +34422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -34498,7 +34499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -34575,7 +34576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
@@ -34652,7 +34653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -34729,7 +34730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -34806,7 +34807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -34883,7 +34884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
@@ -34960,7 +34961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
@@ -35037,7 +35038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
@@ -35114,7 +35115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -35191,7 +35192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -35268,7 +35269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -35345,7 +35346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -35422,7 +35423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -35499,7 +35500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -35576,7 +35577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -35653,7 +35654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -35730,7 +35731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -35807,7 +35808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -35884,7 +35885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -35961,7 +35962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -36038,7 +36039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -36115,7 +36116,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -36192,7 +36193,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -36269,7 +36270,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -36346,7 +36347,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -36423,7 +36424,7 @@
         <v>4.8411960000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -36500,7 +36501,7 @@
         <v>4.6457499999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
@@ -36577,7 +36578,7 @@
         <v>4.9458719999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
@@ -36654,7 +36655,7 @@
         <v>4.9283460000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
@@ -36731,7 +36732,7 @@
         <v>4.4064860000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
         <v>82</v>
       </c>
@@ -36808,7 +36809,7 @@
         <v>5.0656220000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
         <v>82</v>
       </c>
@@ -36885,7 +36886,7 @@
         <v>4.7790910000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
         <v>82</v>
       </c>
@@ -36962,7 +36963,7 @@
         <v>4.7070689999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
@@ -37039,7 +37040,7 @@
         <v>4.803064</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
@@ -37116,7 +37117,7 @@
         <v>5.0844480000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
         <v>82</v>
       </c>
@@ -37193,7 +37194,7 @@
         <v>4.8986720000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
         <v>82</v>
       </c>
@@ -37270,7 +37271,7 @@
         <v>5.2720419999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
         <v>82</v>
       </c>
@@ -37347,7 +37348,7 @@
         <v>5.4706479999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
         <v>82</v>
       </c>
@@ -37424,7 +37425,7 @@
         <v>4.0979549999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98" s="1" t="s">
         <v>82</v>
       </c>
@@ -37501,7 +37502,7 @@
         <v>4.4823789999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
@@ -37578,7 +37579,7 @@
         <v>4.5614549999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100" s="1" t="s">
         <v>82</v>
       </c>
@@ -37655,7 +37656,7 @@
         <v>5.5476219999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
         <v>82</v>
       </c>
@@ -37732,7 +37733,7 @@
         <v>5.0442140000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102" s="1" t="s">
         <v>82</v>
       </c>
@@ -37809,7 +37810,7 @@
         <v>4.7211460000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
         <v>82</v>
       </c>
@@ -37886,7 +37887,7 @@
         <v>4.5716200000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
         <v>82</v>
       </c>
@@ -37963,7 +37964,7 @@
         <v>4.2387990000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105" s="1" t="s">
         <v>82</v>
       </c>
@@ -38040,7 +38041,7 @@
         <v>5.3675649999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106" s="1" t="s">
         <v>82</v>
       </c>
@@ -38117,7 +38118,7 @@
         <v>3.86178</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107" s="1" t="s">
         <v>82</v>
       </c>
@@ -38194,7 +38195,7 @@
         <v>5.4618419999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108" s="1" t="s">
         <v>82</v>
       </c>
@@ -38271,7 +38272,7 @@
         <v>5.4641080000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109" s="1" t="s">
         <v>82</v>
       </c>
@@ -38348,7 +38349,7 @@
         <v>5.4650100000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110" s="1" t="s">
         <v>82</v>
       </c>
@@ -38425,7 +38426,7 @@
         <v>5.4103589999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111" s="1" t="s">
         <v>82</v>
       </c>
@@ -38502,7 +38503,7 @@
         <v>5.1051710000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112" s="1" t="s">
         <v>82</v>
       </c>
@@ -38579,7 +38580,7 @@
         <v>4.7689870000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
@@ -38656,7 +38657,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25">
       <c r="A114" s="1" t="s">
         <v>82</v>
       </c>
@@ -38733,7 +38734,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115" s="1" t="s">
         <v>82</v>
       </c>
@@ -38810,7 +38811,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
         <v>82</v>
       </c>
@@ -38887,7 +38888,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25">
       <c r="A117" s="1" t="s">
         <v>82</v>
       </c>
@@ -38964,7 +38965,7 @@
         <v>4.9445220000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118" s="1" t="s">
         <v>82</v>
       </c>

--- a/GOA/BSAI_2017_SS.xlsx
+++ b/GOA/BSAI_2017_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A1A70C-E09B-814A-BBA7-CFFE86EDF402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F74823-2F22-B647-A4B4-1887EF5AE901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29948,7 +29948,7 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
